--- a/AmazonApp/User_Data.xlsx
+++ b/AmazonApp/User_Data.xlsx
@@ -33,7 +33,7 @@
     <t>search</t>
   </si>
   <si>
-    <t>dress for women</t>
+    <t>iphonecase</t>
   </si>
 </sst>
 </file>
